--- a/DATA/collate_cultivar_data_30_percent/data/stacked_cleaned_data_for_overlay.xlsx
+++ b/DATA/collate_cultivar_data_30_percent/data/stacked_cleaned_data_for_overlay.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1947,275 +1947,275 @@
     <row r="170" spans="1:3">
       <c r="A170" s="1"/>
       <c r="B170" s="2">
-        <v>43217</v>
+        <v>43224</v>
       </c>
       <c r="C170">
-        <v>0.4466019</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="2">
-        <v>43224</v>
+        <v>43225</v>
       </c>
       <c r="C171">
-        <v>0.2011494</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="2">
-        <v>43225</v>
+        <v>43233</v>
       </c>
       <c r="C172">
-        <v>0.1826625</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="2">
-        <v>43233</v>
+        <v>43234</v>
       </c>
       <c r="C173">
-        <v>0.2086168</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B174" s="2">
-        <v>43234</v>
+        <v>42987</v>
       </c>
       <c r="C174">
-        <v>0.1458333</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A175" s="1"/>
       <c r="B175" s="2">
-        <v>42987</v>
+        <v>42990</v>
       </c>
       <c r="C175">
-        <v>0.1138015</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="2">
-        <v>42990</v>
+        <v>42994</v>
       </c>
       <c r="C176">
-        <v>0.1170213</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177" s="2">
-        <v>42994</v>
+        <v>42995</v>
       </c>
       <c r="C177">
-        <v>0.1119792</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="2">
-        <v>42995</v>
+        <v>42996</v>
       </c>
       <c r="C178">
-        <v>0.114094</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="2">
-        <v>42996</v>
+        <v>43002</v>
       </c>
       <c r="C179">
-        <v>0.1305263</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="2">
-        <v>43002</v>
+        <v>43006</v>
       </c>
       <c r="C180">
-        <v>0.1041667</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="2">
-        <v>43006</v>
+        <v>43010</v>
       </c>
       <c r="C181">
-        <v>0.0888383</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182" s="2">
-        <v>43010</v>
+        <v>43019</v>
       </c>
       <c r="C182">
-        <v>0.1278863</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="2">
-        <v>43019</v>
+        <v>43020</v>
       </c>
       <c r="C183">
-        <v>0.1828442</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="2">
-        <v>43020</v>
+        <v>43021</v>
       </c>
       <c r="C184">
-        <v>0.1438053</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="2">
-        <v>43021</v>
+        <v>43035</v>
       </c>
       <c r="C185">
-        <v>0.1268382</v>
+        <v>0.1889764</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186" s="2">
-        <v>43035</v>
+        <v>43043</v>
       </c>
       <c r="C186">
-        <v>0.1889764</v>
+        <v>0.3365617</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="2">
-        <v>43043</v>
+        <v>43083</v>
       </c>
       <c r="C187">
-        <v>0.3365617</v>
+        <v>0.5813952999999999</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="2">
-        <v>43083</v>
+        <v>43127</v>
       </c>
       <c r="C188">
-        <v>0.5813952999999999</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="2">
-        <v>43127</v>
+        <v>43133</v>
       </c>
       <c r="C189">
-        <v>0.3636364</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="2">
-        <v>43133</v>
+        <v>43134</v>
       </c>
       <c r="C190">
-        <v>0.3642241</v>
+        <v>0.5736926</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B191" s="2">
-        <v>43134</v>
+        <v>42968</v>
       </c>
       <c r="C191">
-        <v>0.5736926</v>
+        <v>0.1502347</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A192" s="1"/>
       <c r="B192" s="2">
-        <v>42968</v>
+        <v>42971</v>
       </c>
       <c r="C192">
-        <v>0.1502347</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="2">
-        <v>42971</v>
+        <v>42987</v>
       </c>
       <c r="C193">
-        <v>0.095679</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1"/>
       <c r="B194" s="2">
-        <v>42987</v>
+        <v>42995</v>
       </c>
       <c r="C194">
-        <v>0.1138015</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="2">
-        <v>42995</v>
+        <v>42998</v>
       </c>
       <c r="C195">
-        <v>0.09843399999999999</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="2">
-        <v>42998</v>
+        <v>43007</v>
       </c>
       <c r="C196">
-        <v>0.1011673</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="2">
-        <v>43007</v>
+        <v>43010</v>
       </c>
       <c r="C197">
-        <v>0.08461539999999999</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="2">
-        <v>43010</v>
+        <v>43020</v>
       </c>
       <c r="C198">
-        <v>0.1332149</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199" s="2">
-        <v>43020</v>
+        <v>43021</v>
       </c>
       <c r="C199">
-        <v>0.1637168</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2224,234 +2224,234 @@
         <v>43021</v>
       </c>
       <c r="C200">
-        <v>0.1709559</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="2">
-        <v>43021</v>
+        <v>43053</v>
       </c>
       <c r="C201">
-        <v>0.1943888</v>
+        <v>0.2340426</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202" s="2">
-        <v>43053</v>
+        <v>43062</v>
       </c>
       <c r="C202">
-        <v>0.2340426</v>
+        <v>0.3317647</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="2">
-        <v>43062</v>
+        <v>43067</v>
       </c>
       <c r="C203">
-        <v>0.3317647</v>
+        <v>0.223565</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="2">
-        <v>43067</v>
+        <v>43073</v>
       </c>
       <c r="C204">
-        <v>0.223565</v>
+        <v>0.315197</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205" s="2">
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="C205">
-        <v>0.315197</v>
+        <v>0.2943662</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206" s="2">
-        <v>43074</v>
+        <v>43088</v>
       </c>
       <c r="C206">
-        <v>0.2943662</v>
+        <v>0.2971429</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="2">
-        <v>43088</v>
+        <v>43093</v>
       </c>
       <c r="C207">
-        <v>0.2971429</v>
+        <v>0.3267717</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="2">
-        <v>43093</v>
+        <v>43096</v>
       </c>
       <c r="C208">
-        <v>0.3267717</v>
+        <v>0.3533026</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="2">
-        <v>43096</v>
+        <v>43098</v>
       </c>
       <c r="C209">
-        <v>0.3533026</v>
+        <v>0.3410138</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="2">
-        <v>43098</v>
+        <v>43099</v>
       </c>
       <c r="C210">
-        <v>0.3410138</v>
+        <v>0.2560241</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="2">
-        <v>43099</v>
+        <v>43114</v>
       </c>
       <c r="C211">
-        <v>0.2560241</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="2">
-        <v>43114</v>
+        <v>43115</v>
       </c>
       <c r="C212">
-        <v>0.3317972</v>
+        <v>0.4154676</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="2">
-        <v>43115</v>
+        <v>43121</v>
       </c>
       <c r="C213">
-        <v>0.4154676</v>
+        <v>0.3660856</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="2">
-        <v>43121</v>
+        <v>43126</v>
       </c>
       <c r="C214">
-        <v>0.3660856</v>
+        <v>0.5483871</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="2">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="C215">
-        <v>0.5483871</v>
+        <v>0.3723776</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="2">
-        <v>43127</v>
+        <v>43130</v>
       </c>
       <c r="C216">
-        <v>0.3723776</v>
+        <v>0.535316</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="2">
-        <v>43130</v>
+        <v>43132</v>
       </c>
       <c r="C217">
-        <v>0.535316</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218" s="2">
-        <v>43132</v>
+        <v>43134</v>
       </c>
       <c r="C218">
-        <v>0.3333333</v>
+        <v>0.3359746</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B219" s="2">
-        <v>43134</v>
+        <v>42922</v>
       </c>
       <c r="C219">
-        <v>0.3359746</v>
+        <v>0.122449</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A220" s="1"/>
       <c r="B220" s="2">
-        <v>42922</v>
+        <v>42923</v>
       </c>
       <c r="C220">
-        <v>0.122449</v>
+        <v>0.1146497</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="2">
-        <v>42923</v>
+        <v>42935</v>
       </c>
       <c r="C221">
-        <v>0.1146497</v>
+        <v>0.1046512</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222" s="2">
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="C222">
-        <v>0.1046512</v>
+        <v>0.1209964</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="2">
-        <v>42936</v>
+        <v>42937</v>
       </c>
       <c r="C223">
-        <v>0.1209964</v>
+        <v>0.0990099</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224" s="2">
-        <v>42937</v>
+        <v>42939</v>
       </c>
       <c r="C224">
-        <v>0.0990099</v>
+        <v>0.0695187</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225" s="2">
-        <v>42939</v>
+        <v>42940</v>
       </c>
       <c r="C225">
-        <v>0.0695187</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2460,142 +2460,142 @@
         <v>42940</v>
       </c>
       <c r="C226">
-        <v>0.1107784</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="2">
-        <v>42940</v>
+        <v>42942</v>
       </c>
       <c r="C227">
-        <v>0.1127451</v>
+        <v>0.0839695</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="2">
-        <v>42942</v>
+        <v>42947</v>
       </c>
       <c r="C228">
-        <v>0.0839695</v>
+        <v>0.0993521</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="2">
-        <v>42947</v>
+        <v>42949</v>
       </c>
       <c r="C229">
-        <v>0.0993521</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230" s="2">
-        <v>42949</v>
+        <v>42950</v>
       </c>
       <c r="C230">
-        <v>0.1420455</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="2">
-        <v>42950</v>
+        <v>42951</v>
       </c>
       <c r="C231">
-        <v>0.09230770000000001</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="2">
-        <v>42951</v>
+        <v>42952</v>
       </c>
       <c r="C232">
-        <v>0.124031</v>
+        <v>0.1243523</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233" s="2">
-        <v>42952</v>
+        <v>42954</v>
       </c>
       <c r="C233">
-        <v>0.1243523</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="2">
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="C234">
-        <v>0.1487603</v>
+        <v>0.1172161</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="2">
-        <v>42955</v>
+        <v>42961</v>
       </c>
       <c r="C235">
-        <v>0.1172161</v>
+        <v>0.1259259</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236" s="2">
-        <v>42961</v>
+        <v>42970</v>
       </c>
       <c r="C236">
-        <v>0.1259259</v>
+        <v>0.1158537</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="2">
-        <v>42970</v>
+        <v>42971</v>
       </c>
       <c r="C237">
-        <v>0.1158537</v>
+        <v>0.1022727</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="2">
-        <v>42971</v>
+        <v>42979</v>
       </c>
       <c r="C238">
-        <v>0.1022727</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="2">
-        <v>42979</v>
+        <v>42980</v>
       </c>
       <c r="C239">
-        <v>0.1232493</v>
+        <v>0.0825472</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="2">
-        <v>42980</v>
+        <v>42981</v>
       </c>
       <c r="C240">
-        <v>0.0825472</v>
+        <v>0.07142859999999999</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="2">
-        <v>42981</v>
+        <v>42993</v>
       </c>
       <c r="C241">
-        <v>0.07142859999999999</v>
+        <v>0.0786517</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2604,241 +2604,241 @@
         <v>42993</v>
       </c>
       <c r="C242">
-        <v>0.0786517</v>
+        <v>0.1155378</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="2">
-        <v>42993</v>
+        <v>42994</v>
       </c>
       <c r="C243">
-        <v>0.1155378</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="2">
-        <v>42994</v>
+        <v>42997</v>
       </c>
       <c r="C244">
-        <v>0.0932945</v>
+        <v>0.08398949999999999</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="2">
-        <v>42997</v>
+        <v>43000</v>
       </c>
       <c r="C245">
-        <v>0.08398949999999999</v>
+        <v>0.094697</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="2">
-        <v>43000</v>
+        <v>43001</v>
       </c>
       <c r="C246">
-        <v>0.094697</v>
+        <v>0.0705128</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="2">
-        <v>43001</v>
+        <v>43002</v>
       </c>
       <c r="C247">
-        <v>0.0705128</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="2">
-        <v>43002</v>
+        <v>43007</v>
       </c>
       <c r="C248">
-        <v>0.0841837</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="2">
-        <v>43007</v>
+        <v>43012</v>
       </c>
       <c r="C249">
-        <v>0.0835735</v>
+        <v>0.1945525</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="2">
-        <v>43012</v>
+        <v>43013</v>
       </c>
       <c r="C250">
-        <v>0.1945525</v>
+        <v>0.1259542</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="2">
-        <v>43013</v>
+        <v>43014</v>
       </c>
       <c r="C251">
-        <v>0.1259542</v>
+        <v>0.1254545</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="2">
-        <v>43014</v>
+        <v>43015</v>
       </c>
       <c r="C252">
-        <v>0.1254545</v>
+        <v>0.1403813</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="2">
-        <v>43015</v>
+        <v>43018</v>
       </c>
       <c r="C253">
-        <v>0.1403813</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="2">
-        <v>43018</v>
+        <v>43036</v>
       </c>
       <c r="C254">
-        <v>0.1855422</v>
+        <v>0.1872279</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="2">
-        <v>43036</v>
+        <v>43040</v>
       </c>
       <c r="C255">
-        <v>0.1872279</v>
+        <v>0.2715827</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="2">
-        <v>43040</v>
+        <v>43042</v>
       </c>
       <c r="C256">
-        <v>0.2715827</v>
+        <v>0.3282548</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="2">
-        <v>43042</v>
+        <v>43066</v>
       </c>
       <c r="C257">
-        <v>0.3282548</v>
+        <v>0.2176235</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="2">
-        <v>43066</v>
+        <v>43073</v>
       </c>
       <c r="C258">
-        <v>0.2176235</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="2">
-        <v>43073</v>
+        <v>43088</v>
       </c>
       <c r="C259">
-        <v>0.4278075</v>
+        <v>0.4149933</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="2">
-        <v>43088</v>
+        <v>43096</v>
       </c>
       <c r="C260">
-        <v>0.4149933</v>
+        <v>0.3839662</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="2">
-        <v>43096</v>
+        <v>43104</v>
       </c>
       <c r="C261">
-        <v>0.3839662</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="2">
-        <v>43104</v>
+        <v>43109</v>
       </c>
       <c r="C262">
-        <v>0.5576923</v>
+        <v>0.4695122</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="2">
-        <v>43109</v>
+        <v>43114</v>
       </c>
       <c r="C263">
-        <v>0.4695122</v>
+        <v>0.451664</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="2">
-        <v>43114</v>
+        <v>43116</v>
       </c>
       <c r="C264">
-        <v>0.451664</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="2">
-        <v>43116</v>
+        <v>43118</v>
       </c>
       <c r="C265">
-        <v>0.5191041</v>
+        <v>0.6185853</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1"/>
       <c r="B266" s="2">
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="C266">
-        <v>0.6185853</v>
+        <v>0.4397993</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="2">
-        <v>43123</v>
+        <v>43131</v>
       </c>
       <c r="C267">
-        <v>0.4397993</v>
+        <v>0.3900344</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="2">
-        <v>43131</v>
+        <v>43137</v>
       </c>
       <c r="C268">
-        <v>0.3900344</v>
+        <v>0.5514706</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2847,133 +2847,133 @@
         <v>43137</v>
       </c>
       <c r="C269">
-        <v>0.5514706</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="2">
-        <v>43137</v>
+        <v>43146</v>
       </c>
       <c r="C270">
-        <v>0.5022971000000001</v>
+        <v>0.6424051</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="2">
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="C271">
-        <v>0.6424051</v>
+        <v>0.3713235</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="2">
-        <v>43147</v>
+        <v>43149</v>
       </c>
       <c r="C272">
-        <v>0.3713235</v>
+        <v>0.4791667</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="2">
-        <v>43149</v>
+        <v>43151</v>
       </c>
       <c r="C273">
-        <v>0.4791667</v>
+        <v>0.5538695</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1"/>
       <c r="B274" s="2">
-        <v>43151</v>
+        <v>43152</v>
       </c>
       <c r="C274">
-        <v>0.5538695</v>
+        <v>0.4393305</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1"/>
       <c r="B275" s="2">
-        <v>43152</v>
+        <v>43158</v>
       </c>
       <c r="C275">
-        <v>0.4393305</v>
+        <v>0.4030303</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="2">
-        <v>43158</v>
+        <v>43164</v>
       </c>
       <c r="C276">
-        <v>0.4030303</v>
+        <v>0.3944954</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="2">
-        <v>43164</v>
+        <v>43172</v>
       </c>
       <c r="C277">
-        <v>0.3944954</v>
+        <v>0.2525773</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1"/>
       <c r="B278" s="2">
-        <v>43172</v>
+        <v>43176</v>
       </c>
       <c r="C278">
-        <v>0.2525773</v>
+        <v>0.4233871</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="2">
-        <v>43176</v>
+        <v>43177</v>
       </c>
       <c r="C279">
-        <v>0.4233871</v>
+        <v>0.4324324</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="2">
-        <v>43177</v>
+        <v>43178</v>
       </c>
       <c r="C280">
-        <v>0.4324324</v>
+        <v>0.3315927</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="2">
-        <v>43178</v>
+        <v>43180</v>
       </c>
       <c r="C281">
-        <v>0.3315927</v>
+        <v>0.4752137</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="2">
-        <v>43180</v>
+        <v>43183</v>
       </c>
       <c r="C282">
-        <v>0.4752137</v>
+        <v>0.2880658</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="2">
-        <v>43183</v>
+        <v>43189</v>
       </c>
       <c r="C283">
-        <v>0.2880658</v>
+        <v>0.3628692</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -2982,105 +2982,96 @@
         <v>43189</v>
       </c>
       <c r="C284">
-        <v>0.3628692</v>
+        <v>0.4217252</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="2">
-        <v>43189</v>
+        <v>43193</v>
       </c>
       <c r="C285">
-        <v>0.4217252</v>
+        <v>0.3198198</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="2">
-        <v>43193</v>
+        <v>43201</v>
       </c>
       <c r="C286">
-        <v>0.3198198</v>
+        <v>0.2924791</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="2">
-        <v>43201</v>
+        <v>43205</v>
       </c>
       <c r="C287">
-        <v>0.2924791</v>
+        <v>0.2696897</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1"/>
       <c r="B288" s="2">
-        <v>43205</v>
+        <v>43213</v>
       </c>
       <c r="C288">
-        <v>0.2696897</v>
+        <v>0.414966</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="2">
-        <v>43213</v>
+        <v>43215</v>
       </c>
       <c r="C289">
-        <v>0.414966</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1"/>
       <c r="B290" s="2">
-        <v>43215</v>
+        <v>43226</v>
       </c>
       <c r="C290">
-        <v>0.35</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="2">
-        <v>43226</v>
+        <v>43228</v>
       </c>
       <c r="C291">
-        <v>0.1657609</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="2">
-        <v>43228</v>
+        <v>43232</v>
       </c>
       <c r="C292">
-        <v>0.2068966</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="2">
-        <v>43232</v>
+        <v>43261</v>
       </c>
       <c r="C293">
-        <v>0.2135417</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1"/>
       <c r="B294" s="2">
-        <v>43261</v>
+        <v>43265</v>
       </c>
       <c r="C294">
-        <v>0.0943396</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="1"/>
-      <c r="B295" s="2">
-        <v>43265</v>
-      </c>
-      <c r="C295">
         <v>0.1046512</v>
       </c>
     </row>
@@ -3089,10 +3080,10 @@
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="A28:A51"/>
     <mergeCell ref="A52:A93"/>
-    <mergeCell ref="A94:A174"/>
-    <mergeCell ref="A175:A191"/>
-    <mergeCell ref="A192:A219"/>
-    <mergeCell ref="A220:A295"/>
+    <mergeCell ref="A94:A173"/>
+    <mergeCell ref="A174:A190"/>
+    <mergeCell ref="A191:A218"/>
+    <mergeCell ref="A219:A294"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
